--- a/data/bot327-cyano-data-02.xlsx
+++ b/data/bot327-cyano-data-02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box Sync\misc-github-repos\btmonier.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Leaf Length" sheetId="4" r:id="rId1"/>
@@ -22,8 +22,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Monier, Brandon</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Monier, Brandon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Here are some ways you can lay out your data for Excel graphing…</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3713" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="66">
   <si>
     <t>Leaf Number</t>
   </si>
@@ -163,20 +197,71 @@
     <t>Treat C</t>
   </si>
   <si>
-    <t>Low</t>
+    <t>Week 1</t>
   </si>
   <si>
-    <t>High</t>
+    <t>Week 2</t>
   </si>
   <si>
-    <t>Test Graphs</t>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 1 - SD</t>
+  </si>
+  <si>
+    <t>Week 2 - SD</t>
+  </si>
+  <si>
+    <t>Week 3 - SD</t>
+  </si>
+  <si>
+    <t>Low Concentration</t>
+  </si>
+  <si>
+    <t>High Concentration</t>
+  </si>
+  <si>
+    <t>Low Concentration - SD</t>
+  </si>
+  <si>
+    <t>High Concentration - SD</t>
+  </si>
+  <si>
+    <t>Option B - 1 week and BOTH cyano. Concentrations (e.g. CCI, fresh weight, and dry weight)</t>
+  </si>
+  <si>
+    <t>Option A - 3 weeks and 1 cyano. concentration (e.g. leaf length and leaf number)</t>
+  </si>
+  <si>
+    <t>Test Graphs (scoll across -&gt;)</t>
+  </si>
+  <si>
+    <t>5 minute infiltration</t>
+  </si>
+  <si>
+    <t>7.5 minute infiltration</t>
+  </si>
+  <si>
+    <t>10 minute infiltration</t>
+  </si>
+  <si>
+    <t>5 minute infiltration - SD</t>
+  </si>
+  <si>
+    <t>7.5 minute infiltration - SD</t>
+  </si>
+  <si>
+    <t>10 minute infiltration - SD</t>
+  </si>
+  <si>
+    <t>Option C - 3 weeks as time series (using line graphs) - similar to Option A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -240,37 +325,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE4D5"/>
-        <bgColor rgb="FFFBE4D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
-        <bgColor rgb="FFF9CB9C"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -312,6 +400,96 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor rgb="FF9CC2E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -451,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -492,16 +670,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -514,7 +692,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -531,16 +709,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -580,41 +758,61 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,8 +866,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Example - Low Concentration</a:t>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Example - Low Concentration (weeks 1 -3)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -734,12 +932,102 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$C$12:$O$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.54</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.68</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13999999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.378</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1759999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.799999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.2646</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.82319999999999993</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$C$12:$O$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.54</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.68</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13999999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.378</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1759999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.799999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.2646</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.82319999999999993</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Test Graphs'!$C$5:$E$5</c:f>
+              <c:f>'Test Graphs'!$C$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -749,15 +1037,33 @@
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Graphs'!$C$6:$E$6</c:f>
+              <c:f>'Test Graphs'!$C$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -767,12 +1073,30 @@
                 <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9199999999999995</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8733-4A55-A25A-8092AFA5A8FB}"/>
+              <c16:uniqueId val="{00000000-2E5E-442C-BFDC-B13FAD90529D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -800,12 +1124,102 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$C$13:$O$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.89999999999999991</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.89</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.27999999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.62999999999999989</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.323</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.19599999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.44099999999999989</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.92609999999999992</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$C$14:$M$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.60000000000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.26</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42000000000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.8819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29399999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.61739999999999984</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.0289999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Test Graphs'!$C$5:$E$5</c:f>
+              <c:f>'Test Graphs'!$C$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -815,15 +1229,33 @@
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Graphs'!$C$7:$E$7</c:f>
+              <c:f>'Test Graphs'!$C$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -833,12 +1265,30 @@
                 <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4099999999999993</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8733-4A55-A25A-8092AFA5A8FB}"/>
+              <c16:uniqueId val="{00000001-2E5E-442C-BFDC-B13FAD90529D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -866,12 +1316,102 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$C$14:$M$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.60000000000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.26</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42000000000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.8819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29399999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.61739999999999984</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.0289999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$C$14:$M$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.60000000000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.26</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42000000000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.8819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29399999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.61739999999999984</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.0289999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Test Graphs'!$C$5:$E$5</c:f>
+              <c:f>'Test Graphs'!$C$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -881,15 +1421,33 @@
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Graphs'!$C$8:$E$8</c:f>
+              <c:f>'Test Graphs'!$C$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -899,12 +1457,30 @@
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4299999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8999999999999995</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8733-4A55-A25A-8092AFA5A8FB}"/>
+              <c16:uniqueId val="{00000002-2E5E-442C-BFDC-B13FAD90529D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -918,11 +1494,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="446907184"/>
-        <c:axId val="442849632"/>
+        <c:axId val="746007711"/>
+        <c:axId val="746006047"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446907184"/>
+        <c:axId val="746007711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +1541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442849632"/>
+        <c:crossAx val="746006047"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +1549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442849632"/>
+        <c:axId val="746006047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,6 +1569,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Example variable</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1024,7 +1655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446907184"/>
+        <c:crossAx val="746007711"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1138,9 +1769,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Example - High Concentration</a:t>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Example - low</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> and high cyanobacteria concentrations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1185,7 +1821,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test Graphs'!$H$6</c:f>
+              <c:f>'Test Graphs'!$Q$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1204,12 +1840,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$R$12:$X$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.63</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.68</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.89599999999999991</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.3439999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.5839999999999996</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$R$12:$X$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.63</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.68</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.89599999999999991</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.3439999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.5839999999999996</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Test Graphs'!$I$5:$K$5</c:f>
+              <c:f>'Test Graphs'!$R$5:$X$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1219,30 +1927,48 @@
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Graphs'!$I$6:$K$6</c:f>
+              <c:f>'Test Graphs'!$R$6:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-333F-4226-8823-5EE450369787}"/>
+              <c16:uniqueId val="{00000000-CFE2-4711-9ECF-E959D5A41BCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1251,7 +1977,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test Graphs'!$H$7</c:f>
+              <c:f>'Test Graphs'!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1270,12 +1996,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CFE2-4711-9ECF-E959D5A41BCA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$R$13:$X$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.84</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.05</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.89</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.7919999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.2400000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.032</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$R$13:$X$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.84</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.05</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.89</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.7919999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.2400000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.032</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Test Graphs'!$I$5:$K$5</c:f>
+              <c:f>'Test Graphs'!$R$5:$X$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1285,30 +2110,48 @@
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Graphs'!$I$7:$K$7</c:f>
+              <c:f>'Test Graphs'!$R$7:$X$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-333F-4226-8823-5EE450369787}"/>
+              <c16:uniqueId val="{00000001-CFE2-4711-9ECF-E959D5A41BCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1317,7 +2160,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test Graphs'!$H$8</c:f>
+              <c:f>'Test Graphs'!$Q$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1336,12 +2179,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$R$14:$X$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.26</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.47</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.6879999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.1359999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.4800000000000004</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$R$14:$X$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.26</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.47</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.6879999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.1359999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.4800000000000004</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Test Graphs'!$I$5:$K$5</c:f>
+              <c:f>'Test Graphs'!$R$5:$X$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1351,30 +2266,48 @@
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Graphs'!$I$8:$K$8</c:f>
+              <c:f>'Test Graphs'!$R$8:$X$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.1999999999999993</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8999999999999995</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-333F-4226-8823-5EE450369787}"/>
+              <c16:uniqueId val="{00000002-CFE2-4711-9ECF-E959D5A41BCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1387,12 +2320,941 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="637971792"/>
-        <c:axId val="591176528"/>
+        <c:overlap val="-30"/>
+        <c:axId val="2045971488"/>
+        <c:axId val="2045964416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="637971792"/>
+        <c:axId val="2045971488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2045964416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2045964416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Example</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> variable</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2045971488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Graphs'!$AD$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Treat A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$AE$12:$AO$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.54</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.68</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13999999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.378</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1759999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.799999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.2646</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.82319999999999993</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$AE$12:$AO$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.54</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.68</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13999999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.378</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1759999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.799999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.2646</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.82319999999999993</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Test Graphs'!$AE$5:$AO$5</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Week 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Week 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Week 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test Graphs'!$AE$6:$AO$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DE7-4694-A1BA-E0DD7F4502A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Graphs'!$AD$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Treat B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$AE$13:$AO$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.89999999999999991</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.89</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.27999999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.62999999999999989</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.323</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.19599999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.44099999999999989</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.92609999999999992</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$AE$13:$AO$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.89999999999999991</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.89</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.27999999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.62999999999999989</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.323</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.19599999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.44099999999999989</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.92609999999999992</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Test Graphs'!$AE$5:$AO$5</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Week 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Week 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Week 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test Graphs'!$AE$7:$AO$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4099999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DE7-4694-A1BA-E0DD7F4502A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Graphs'!$AD$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Treat C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$AE$14:$AO$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.60000000000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.26</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42000000000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.8819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29399999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.61739999999999984</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.0289999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Test Graphs'!$AE$14:$AO$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.60000000000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.26</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42000000000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.8819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29399999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.61739999999999984</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.0289999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Test Graphs'!$AE$5:$AO$5</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Week 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Week 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Week 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test Graphs'!$AE$8:$AO$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4299999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7DE7-4694-A1BA-E0DD7F4502A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2119551536"/>
+        <c:axId val="2119538224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2119551536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +3297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591176528"/>
+        <c:crossAx val="2119538224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1443,10 +3305,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="591176528"/>
+        <c:axId val="2119538224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1495,7 +3356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637971792"/>
+        <c:crossAx val="2119551536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1616,6 +3477,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2661,27 +4562,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83476578-67D6-42E9-8E95-5FF500802B08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,23 +5118,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5543E7-0BFF-4DAD-B955-9FE6261EF743}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +5152,80 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.1723</cdr:x>
+      <cdr:y>0.30769</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4223</cdr:x>
+      <cdr:y>0.38462</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="844826" y="762000"/>
+          <a:ext cx="1225826" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3037,7 +5527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU184"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3075,54 +5565,54 @@
       </c>
     </row>
     <row r="2" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="Z2" s="68" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="Z2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="87"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -3134,53 +5624,53 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="66" t="s">
+      <c r="L4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="69" t="s">
+      <c r="T4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
       <c r="W4" s="11"/>
       <c r="X4" s="15"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="64" t="s">
+      <c r="AC4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AK4" s="66" t="s">
+      <c r="AK4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
-      <c r="AS4" s="69" t="s">
+      <c r="AS4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AT4" s="65"/>
-      <c r="AU4" s="65"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
     </row>
     <row r="5" spans="1:47" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -7065,6 +9555,10 @@
         <v>18</v>
       </c>
       <c r="C59" s="1"/>
+      <c r="D59" s="10">
+        <f>AVERAGE(D6:D13,D15:D22,D24:D31,D33:D40,D42:D49,D51:D58)</f>
+        <v>97.523809523809518</v>
+      </c>
       <c r="J59" s="1" t="s">
         <v>18</v>
       </c>
@@ -7092,6 +9586,10 @@
         <v>19</v>
       </c>
       <c r="C60" s="1"/>
+      <c r="D60" s="10">
+        <f>_xlfn.STDEV.S(D6:D58)</f>
+        <v>41.008071214846296</v>
+      </c>
       <c r="J60" s="1" t="s">
         <v>19</v>
       </c>
@@ -7120,7 +9618,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="7"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="I61" s="7"/>
@@ -7179,53 +9677,53 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="64" t="s">
+      <c r="D65" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="88"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="66" t="s">
+      <c r="L65" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
+      <c r="M65" s="93"/>
+      <c r="N65" s="93"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-      <c r="T65" s="69" t="s">
+      <c r="T65" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="U65" s="65"/>
-      <c r="V65" s="65"/>
+      <c r="U65" s="96"/>
+      <c r="V65" s="96"/>
       <c r="W65" s="11"/>
       <c r="X65" s="15"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
-      <c r="AC65" s="64" t="s">
+      <c r="AC65" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="AD65" s="65"/>
-      <c r="AE65" s="65"/>
+      <c r="AD65" s="88"/>
+      <c r="AE65" s="88"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
-      <c r="AK65" s="66" t="s">
+      <c r="AK65" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AL65" s="65"/>
-      <c r="AM65" s="65"/>
+      <c r="AL65" s="93"/>
+      <c r="AM65" s="93"/>
       <c r="AP65" s="2"/>
       <c r="AQ65" s="2"/>
       <c r="AR65" s="2"/>
-      <c r="AS65" s="69" t="s">
+      <c r="AS65" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AT65" s="65"/>
-      <c r="AU65" s="65"/>
+      <c r="AT65" s="96"/>
+      <c r="AU65" s="96"/>
     </row>
     <row r="66" spans="1:47" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
@@ -11225,53 +13723,53 @@
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="64" t="s">
+      <c r="D126" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
+      <c r="E126" s="88"/>
+      <c r="F126" s="88"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
-      <c r="L126" s="66" t="s">
+      <c r="L126" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="M126" s="65"/>
-      <c r="N126" s="65"/>
+      <c r="M126" s="93"/>
+      <c r="N126" s="93"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
-      <c r="T126" s="69" t="s">
+      <c r="T126" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="U126" s="65"/>
-      <c r="V126" s="65"/>
+      <c r="U126" s="96"/>
+      <c r="V126" s="96"/>
       <c r="W126" s="11"/>
       <c r="X126" s="15"/>
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
-      <c r="AC126" s="64" t="s">
+      <c r="AC126" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="AD126" s="65"/>
-      <c r="AE126" s="65"/>
+      <c r="AD126" s="88"/>
+      <c r="AE126" s="88"/>
       <c r="AH126" s="2"/>
       <c r="AI126" s="2"/>
       <c r="AJ126" s="2"/>
-      <c r="AK126" s="66" t="s">
+      <c r="AK126" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AL126" s="65"/>
-      <c r="AM126" s="65"/>
+      <c r="AL126" s="93"/>
+      <c r="AM126" s="93"/>
       <c r="AP126" s="2"/>
       <c r="AQ126" s="2"/>
       <c r="AR126" s="2"/>
-      <c r="AS126" s="69" t="s">
+      <c r="AS126" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AT126" s="65"/>
-      <c r="AU126" s="65"/>
+      <c r="AT126" s="96"/>
+      <c r="AU126" s="96"/>
     </row>
     <row r="127" spans="1:47" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="37" t="s">
@@ -15268,20 +17766,20 @@
     <mergeCell ref="AS126:AU126"/>
     <mergeCell ref="AC126:AE126"/>
     <mergeCell ref="T126:V126"/>
+    <mergeCell ref="L126:N126"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="Z2:AU2"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="L65:N65"/>
     <mergeCell ref="T65:V65"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AS65:AU65"/>
     <mergeCell ref="AS4:AU4"/>
-    <mergeCell ref="L126:N126"/>
     <mergeCell ref="AC65:AE65"/>
     <mergeCell ref="AK65:AM65"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="Z2:AU2"/>
-    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -15292,9 +17790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15350,55 +17846,55 @@
       </c>
     </row>
     <row r="2" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
       <c r="X2" s="19"/>
-      <c r="Z2" s="68" t="s">
+      <c r="Z2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="87"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -15408,53 +17904,53 @@
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="24"/>
       <c r="I4" s="23"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
       <c r="N4" s="24"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="24"/>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
       <c r="V4" s="24"/>
       <c r="W4" s="25"/>
       <c r="X4" s="19"/>
       <c r="Z4" s="23"/>
       <c r="AA4" s="24"/>
-      <c r="AB4" s="73" t="s">
+      <c r="AB4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
       <c r="AE4" s="24"/>
       <c r="AH4" s="23"/>
       <c r="AI4" s="24"/>
-      <c r="AJ4" s="72" t="s">
+      <c r="AJ4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
       <c r="AM4" s="24"/>
       <c r="AP4" s="23"/>
       <c r="AQ4" s="24"/>
-      <c r="AR4" s="70" t="s">
+      <c r="AR4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
       <c r="AU4" s="24"/>
     </row>
     <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -16203,18 +18699,98 @@
       <c r="J12" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="K12" s="17">
+        <f>AVERAGE(K6:K11)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L12" s="17">
+        <f t="shared" ref="L12:M12" si="1">AVERAGE(L6:L11)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="M12" s="17">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="N12" s="17">
+        <f>AVERAGE(N6:N11)</f>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="R12" s="21" t="s">
         <v>18</v>
+      </c>
+      <c r="S12" s="17">
+        <f>AVERAGE(S6:S11)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="T12" s="17">
+        <f t="shared" ref="T12:U12" si="2">AVERAGE(T6:T11)</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="U12" s="17">
+        <f t="shared" si="2"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="V12" s="17">
+        <f>AVERAGE(V6:V11)</f>
+        <v>3</v>
       </c>
       <c r="X12" s="19"/>
       <c r="AA12" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="AB12" s="17">
+        <f>AVERAGE(AB6:AB11)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AC12" s="17">
+        <f t="shared" ref="AC12:AD12" si="3">AVERAGE(AC6:AC11)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AD12" s="17">
+        <f t="shared" si="3"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AE12" s="17">
+        <f>AVERAGE(AE6:AE11)</f>
+        <v>3</v>
+      </c>
       <c r="AI12" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="AJ12" s="17">
+        <f>AVERAGE(AJ6:AJ11)</f>
+        <v>4</v>
+      </c>
+      <c r="AK12" s="17">
+        <f t="shared" ref="AK12:AL12" si="4">AVERAGE(AK6:AK11)</f>
+        <v>5</v>
+      </c>
+      <c r="AL12" s="17">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AM12" s="17">
+        <f>AVERAGE(AM6:AM11)</f>
+        <v>3.5</v>
+      </c>
       <c r="AQ12" s="21" t="s">
         <v>18</v>
+      </c>
+      <c r="AR12" s="17">
+        <f>AVERAGE(AR6:AR11)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AS12" s="17">
+        <f t="shared" ref="AS12:AT12" si="5">AVERAGE(AS6:AS11)</f>
+        <v>3.75</v>
+      </c>
+      <c r="AT12" s="17">
+        <f t="shared" si="5"/>
+        <v>4.25</v>
+      </c>
+      <c r="AU12" s="17">
+        <f>AVERAGE(AU6:AU11)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -16226,11 +18802,11 @@
         <v>0.54772255750516607</v>
       </c>
       <c r="D13" s="60">
-        <f t="shared" ref="D13:E13" si="1">_xlfn.STDEV.S(D6:D11)</f>
+        <f t="shared" ref="D13:E13" si="6">_xlfn.STDEV.S(D6:D11)</f>
         <v>0.98319208025017601</v>
       </c>
       <c r="E13" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.4142135623730951</v>
       </c>
       <c r="F13" s="60">
@@ -16240,18 +18816,98 @@
       <c r="J13" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="K13" s="17">
+        <f>_xlfn.STDEV.S(K6:K11)</f>
+        <v>0.51639777949432131</v>
+      </c>
+      <c r="L13" s="17">
+        <f t="shared" ref="L13:M13" si="7">_xlfn.STDEV.S(L6:L11)</f>
+        <v>0.51639777949432231</v>
+      </c>
+      <c r="M13" s="17">
+        <f t="shared" si="7"/>
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="N13" s="17">
+        <f>_xlfn.STDEV.S(N6:N11)</f>
+        <v>0.51639777949432131</v>
+      </c>
       <c r="R13" s="21" t="s">
         <v>19</v>
+      </c>
+      <c r="S13" s="17">
+        <f>_xlfn.STDEV.S(S6:S11)</f>
+        <v>0.51639777949432131</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" ref="T13:U13" si="8">_xlfn.STDEV.S(T6:T11)</f>
+        <v>1.1690451944500129</v>
+      </c>
+      <c r="U13" s="17">
+        <f t="shared" si="8"/>
+        <v>0.98319208025017601</v>
+      </c>
+      <c r="V13" s="17">
+        <f>_xlfn.STDEV.S(V6:V11)</f>
+        <v>0.89442719099991586</v>
       </c>
       <c r="X13" s="19"/>
       <c r="AA13" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="AB13" s="17">
+        <f>_xlfn.STDEV.S(AB6:AB11)</f>
+        <v>0.51639777949432131</v>
+      </c>
+      <c r="AC13" s="17">
+        <f t="shared" ref="AC13:AD13" si="9">_xlfn.STDEV.S(AC6:AC11)</f>
+        <v>0.51639777949432408</v>
+      </c>
+      <c r="AD13" s="17">
+        <f t="shared" si="9"/>
+        <v>1.1690451944500129</v>
+      </c>
+      <c r="AE13" s="17">
+        <f>_xlfn.STDEV.S(AE6:AE11)</f>
+        <v>0.63245553203367588</v>
+      </c>
       <c r="AI13" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="AJ13" s="17">
+        <f>_xlfn.STDEV.S(AJ6:AJ11)</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="17">
+        <f t="shared" ref="AK13:AL13" si="10">_xlfn.STDEV.S(AK6:AK11)</f>
+        <v>1.1547005383792515</v>
+      </c>
+      <c r="AL13" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="17">
+        <f>_xlfn.STDEV.S(AM6:AM11)</f>
+        <v>0.57735026918962573</v>
+      </c>
       <c r="AQ13" s="21" t="s">
         <v>19</v>
+      </c>
+      <c r="AR13" s="17">
+        <f>_xlfn.STDEV.S(AR6:AR11)</f>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="AS13" s="17">
+        <f t="shared" ref="AS13:AT13" si="11">_xlfn.STDEV.S(AS6:AS11)</f>
+        <v>2.6299556396765835</v>
+      </c>
+      <c r="AT13" s="17">
+        <f t="shared" si="11"/>
+        <v>2.8722813232690143</v>
+      </c>
+      <c r="AU13" s="17">
+        <f>_xlfn.STDEV.S(AU6:AU11)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -16264,11 +18920,11 @@
         <v>0.22360679774997896</v>
       </c>
       <c r="D14" s="61">
-        <f t="shared" ref="D14:E14" si="2">D13/SQRT(6)</f>
+        <f t="shared" ref="D14:E14" si="12">D13/SQRT(6)</f>
         <v>0.40138648595974363</v>
       </c>
       <c r="E14" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="F14" s="61">
@@ -16279,44 +18935,104 @@
       <c r="J14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
+      <c r="K14" s="33">
+        <f>K13/SQRT(6)</f>
+        <v>0.21081851067789159</v>
+      </c>
+      <c r="L14" s="33">
+        <f t="shared" ref="L14:M14" si="13">L13/SQRT(6)</f>
+        <v>0.21081851067789201</v>
+      </c>
+      <c r="M14" s="33">
+        <f t="shared" si="13"/>
+        <v>0.22360679774997896</v>
+      </c>
+      <c r="N14" s="33">
+        <f>N13/SQRT(6)</f>
+        <v>0.21081851067789159</v>
+      </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
+      <c r="S14" s="33">
+        <f>S13/SQRT(6)</f>
+        <v>0.21081851067789159</v>
+      </c>
+      <c r="T14" s="33">
+        <f t="shared" ref="T14:U14" si="14">T13/SQRT(6)</f>
+        <v>0.47726070210921212</v>
+      </c>
+      <c r="U14" s="33">
+        <f t="shared" si="14"/>
+        <v>0.40138648595974363</v>
+      </c>
+      <c r="V14" s="33">
+        <f>V13/SQRT(6)</f>
+        <v>0.36514837167011077</v>
+      </c>
       <c r="W14" s="25"/>
       <c r="X14" s="19"/>
       <c r="Z14" s="28"/>
       <c r="AA14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
+      <c r="AB14" s="33">
+        <f>AB13/SQRT(6)</f>
+        <v>0.21081851067789159</v>
+      </c>
+      <c r="AC14" s="33">
+        <f t="shared" ref="AC14:AD14" si="15">AC13/SQRT(6)</f>
+        <v>0.21081851067789273</v>
+      </c>
+      <c r="AD14" s="33">
+        <f t="shared" si="15"/>
+        <v>0.47726070210921212</v>
+      </c>
+      <c r="AE14" s="33">
+        <f>AE13/SQRT(6)</f>
+        <v>0.25819888974716115</v>
+      </c>
       <c r="AH14" s="28"/>
       <c r="AI14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
+      <c r="AJ14" s="33">
+        <f>AJ13/SQRT(6)</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="33">
+        <f t="shared" ref="AK14:AL14" si="16">AK13/SQRT(6)</f>
+        <v>0.47140452079103168</v>
+      </c>
+      <c r="AL14" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="33">
+        <f>AM13/SQRT(6)</f>
+        <v>0.23570226039551584</v>
+      </c>
       <c r="AP14" s="28"/>
       <c r="AQ14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
+      <c r="AR14" s="33">
+        <f>AR13/SQRT(6)</f>
+        <v>0.23570226039551584</v>
+      </c>
+      <c r="AS14" s="33">
+        <f t="shared" ref="AS14:AT14" si="17">AS13/SQRT(6)</f>
+        <v>1.0736748938937606</v>
+      </c>
+      <c r="AT14" s="33">
+        <f t="shared" si="17"/>
+        <v>1.1726039399558574</v>
+      </c>
+      <c r="AU14" s="33">
+        <f>AU13/SQRT(6)</f>
+        <v>0.40824829046386307</v>
+      </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="X15" s="19"/>
@@ -16330,53 +19046,53 @@
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="24"/>
       <c r="I18" s="23"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
       <c r="N18" s="24"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="24"/>
-      <c r="S18" s="70" t="s">
+      <c r="S18" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
       <c r="V18" s="24"/>
       <c r="W18" s="25"/>
       <c r="X18" s="19"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="24"/>
-      <c r="AB18" s="73" t="s">
+      <c r="AB18" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
       <c r="AE18" s="24"/>
       <c r="AH18" s="23"/>
       <c r="AI18" s="24"/>
-      <c r="AJ18" s="72" t="s">
+      <c r="AJ18" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="92"/>
       <c r="AM18" s="24"/>
       <c r="AP18" s="23"/>
       <c r="AQ18" s="24"/>
-      <c r="AR18" s="70" t="s">
+      <c r="AR18" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
+      <c r="AS18" s="97"/>
+      <c r="AT18" s="97"/>
       <c r="AU18" s="24"/>
     </row>
     <row r="19" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -17106,42 +19822,234 @@
       <c r="B26" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="C26" s="17">
+        <f>AVERAGE(C20:C25)</f>
+        <v>3.5</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" ref="D26:E26" si="18">AVERAGE(D20:D25)</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="18"/>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="F26" s="17">
+        <f>AVERAGE(F20:F25)</f>
+        <v>2</v>
+      </c>
       <c r="J26" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="K26" s="17">
+        <f>AVERAGE(K20:K25)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L26" s="17">
+        <f t="shared" ref="L26:M26" si="19">AVERAGE(L20:L25)</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="M26" s="17">
+        <f t="shared" si="19"/>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="N26" s="17">
+        <f>AVERAGE(N20:N25)</f>
+        <v>3.5</v>
+      </c>
       <c r="R26" s="21" t="s">
         <v>18</v>
+      </c>
+      <c r="S26" s="17">
+        <f>AVERAGE(S20:S25)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="T26" s="17">
+        <f t="shared" ref="T26:U26" si="20">AVERAGE(T20:T25)</f>
+        <v>5</v>
+      </c>
+      <c r="U26" s="17">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="V26" s="17">
+        <f>AVERAGE(V20:V25)</f>
+        <v>3</v>
       </c>
       <c r="X26" s="19"/>
       <c r="AA26" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="AB26" s="17">
+        <f>AVERAGE(AB20:AB25)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AC26" s="17">
+        <f t="shared" ref="AC26:AD26" si="21">AVERAGE(AC20:AC25)</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="AD26" s="17">
+        <f t="shared" si="21"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AE26" s="17">
+        <f>AVERAGE(AE20:AE25)</f>
+        <v>2.8333333333333335</v>
+      </c>
       <c r="AI26" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="AJ26" s="17">
+        <f>AVERAGE(AJ20:AJ25)</f>
+        <v>4</v>
+      </c>
+      <c r="AK26" s="17">
+        <f t="shared" ref="AK26:AL26" si="22">AVERAGE(AK20:AK25)</f>
+        <v>4.75</v>
+      </c>
+      <c r="AL26" s="17">
+        <f t="shared" si="22"/>
+        <v>5.75</v>
+      </c>
+      <c r="AM26" s="17">
+        <f>AVERAGE(AM20:AM25)</f>
+        <v>3.25</v>
+      </c>
       <c r="AQ26" s="21" t="s">
         <v>18</v>
+      </c>
+      <c r="AR26" s="17">
+        <f>AVERAGE(AR20:AR25)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AS26" s="17">
+        <f t="shared" ref="AS26:AT26" si="23">AVERAGE(AS20:AS25)</f>
+        <v>3.75</v>
+      </c>
+      <c r="AT26" s="17">
+        <f t="shared" si="23"/>
+        <v>5.25</v>
+      </c>
+      <c r="AU26" s="17">
+        <f>AVERAGE(AU20:AU25)</f>
+        <v>2.25</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="C27" s="17">
+        <f>_xlfn.STDEV.S(C20:C25)</f>
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" ref="D27:E27" si="24">_xlfn.STDEV.S(D20:D25)</f>
+        <v>0.75277265270908222</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="24"/>
+        <v>1.4719601443879753</v>
+      </c>
+      <c r="F27" s="17">
+        <f>_xlfn.STDEV.S(F20:F25)</f>
+        <v>0.63245553203367588</v>
+      </c>
       <c r="J27" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="K27" s="17">
+        <f>_xlfn.STDEV.S(K20:K25)</f>
+        <v>0.51639777949432131</v>
+      </c>
+      <c r="L27" s="17">
+        <f t="shared" ref="L27:M27" si="25">_xlfn.STDEV.S(L20:L25)</f>
+        <v>0.40824829046386302</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="25"/>
+        <v>0.40824829046386302</v>
+      </c>
+      <c r="N27" s="17">
+        <f>_xlfn.STDEV.S(N20:N25)</f>
+        <v>0.54772255750516607</v>
+      </c>
       <c r="R27" s="21" t="s">
         <v>19</v>
+      </c>
+      <c r="S27" s="17">
+        <f>_xlfn.STDEV.S(S20:S25)</f>
+        <v>0.51639777949432131</v>
+      </c>
+      <c r="T27" s="17">
+        <f t="shared" ref="T27:U27" si="26">_xlfn.STDEV.S(T20:T25)</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="U27" s="17">
+        <f t="shared" si="26"/>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="V27" s="17">
+        <f>_xlfn.STDEV.S(V20:V25)</f>
+        <v>0.89442719099991586</v>
       </c>
       <c r="X27" s="19"/>
       <c r="AA27" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="AB27" s="17">
+        <f>_xlfn.STDEV.S(AB20:AB25)</f>
+        <v>0.51639777949432131</v>
+      </c>
+      <c r="AC27" s="17">
+        <f t="shared" ref="AC27:AD27" si="27">_xlfn.STDEV.S(AC20:AC25)</f>
+        <v>0.98319208025017601</v>
+      </c>
+      <c r="AD27" s="17">
+        <f t="shared" si="27"/>
+        <v>1.1690451944500129</v>
+      </c>
+      <c r="AE27" s="17">
+        <f>_xlfn.STDEV.S(AE20:AE25)</f>
+        <v>0.40824829046386357</v>
+      </c>
       <c r="AI27" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="AJ27" s="17">
+        <f>_xlfn.STDEV.S(AJ20:AJ25)</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="17">
+        <f t="shared" ref="AK27:AL27" si="28">_xlfn.STDEV.S(AK20:AK25)</f>
+        <v>0.9574271077563381</v>
+      </c>
+      <c r="AL27" s="17">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="AM27" s="17">
+        <f>_xlfn.STDEV.S(AM20:AM25)</f>
+        <v>0.5</v>
+      </c>
       <c r="AQ27" s="21" t="s">
         <v>19</v>
+      </c>
+      <c r="AR27" s="17">
+        <f>_xlfn.STDEV.S(AR20:AR25)</f>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="AS27" s="17">
+        <f t="shared" ref="AS27:AT27" si="29">_xlfn.STDEV.S(AS20:AS25)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AT27" s="17">
+        <f t="shared" si="29"/>
+        <v>0.9574271077563381</v>
+      </c>
+      <c r="AU27" s="17">
+        <f>_xlfn.STDEV.S(AU20:AU25)</f>
+        <v>0.9574271077563381</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
@@ -17149,52 +20057,124 @@
       <c r="B28" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="C28" s="33">
+        <f>C27/SQRT(6)</f>
+        <v>0.22360679774997896</v>
+      </c>
+      <c r="D28" s="33">
+        <f t="shared" ref="D28:E28" si="30">D27/SQRT(6)</f>
+        <v>0.30731814857643008</v>
+      </c>
+      <c r="E28" s="33">
+        <f t="shared" si="30"/>
+        <v>0.60092521257733189</v>
+      </c>
+      <c r="F28" s="33">
+        <f>F27/SQRT(6)</f>
+        <v>0.25819888974716115</v>
+      </c>
       <c r="I28" s="28"/>
       <c r="J28" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
+      <c r="K28" s="33">
+        <f>K27/SQRT(6)</f>
+        <v>0.21081851067789159</v>
+      </c>
+      <c r="L28" s="33">
+        <f t="shared" ref="L28:M28" si="31">L27/SQRT(6)</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="M28" s="33">
+        <f t="shared" si="31"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="N28" s="33">
+        <f>N27/SQRT(6)</f>
+        <v>0.22360679774997896</v>
+      </c>
       <c r="Q28" s="28"/>
       <c r="R28" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
+      <c r="S28" s="33">
+        <f>S27/SQRT(6)</f>
+        <v>0.21081851067789159</v>
+      </c>
+      <c r="T28" s="33">
+        <f t="shared" ref="T28:U28" si="32">T27/SQRT(6)</f>
+        <v>0.36514837167011077</v>
+      </c>
+      <c r="U28" s="33">
+        <f t="shared" si="32"/>
+        <v>0.36514837167011077</v>
+      </c>
+      <c r="V28" s="33">
+        <f>V27/SQRT(6)</f>
+        <v>0.36514837167011077</v>
+      </c>
       <c r="W28" s="25"/>
       <c r="X28" s="19"/>
       <c r="Z28" s="28"/>
       <c r="AA28" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
+      <c r="AB28" s="33">
+        <f>AB27/SQRT(6)</f>
+        <v>0.21081851067789159</v>
+      </c>
+      <c r="AC28" s="33">
+        <f t="shared" ref="AC28:AD28" si="33">AC27/SQRT(6)</f>
+        <v>0.40138648595974363</v>
+      </c>
+      <c r="AD28" s="33">
+        <f t="shared" si="33"/>
+        <v>0.47726070210921212</v>
+      </c>
+      <c r="AE28" s="33">
+        <f>AE27/SQRT(6)</f>
+        <v>0.16666666666666691</v>
+      </c>
       <c r="AH28" s="28"/>
       <c r="AI28" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="33"/>
+      <c r="AJ28" s="33">
+        <f>AJ27/SQRT(6)</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="33">
+        <f t="shared" ref="AK28:AL28" si="34">AK27/SQRT(6)</f>
+        <v>0.39086797998528583</v>
+      </c>
+      <c r="AL28" s="33">
+        <f t="shared" si="34"/>
+        <v>0.20412414523193154</v>
+      </c>
+      <c r="AM28" s="33">
+        <f>AM27/SQRT(6)</f>
+        <v>0.20412414523193154</v>
+      </c>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
+      <c r="AR28" s="33">
+        <f>AR27/SQRT(6)</f>
+        <v>0.23570226039551584</v>
+      </c>
+      <c r="AS28" s="33">
+        <f t="shared" ref="AS28:AT28" si="35">AS27/SQRT(6)</f>
+        <v>0.20412414523193154</v>
+      </c>
+      <c r="AT28" s="33">
+        <f t="shared" si="35"/>
+        <v>0.39086797998528583</v>
+      </c>
+      <c r="AU28" s="33">
+        <f>AU27/SQRT(6)</f>
+        <v>0.39086797998528583</v>
+      </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="X29" s="19"/>
@@ -17208,53 +20188,53 @@
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="24"/>
       <c r="I32" s="23"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
       <c r="N32" s="24"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="24"/>
-      <c r="S32" s="70" t="s">
+      <c r="S32" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="97"/>
       <c r="V32" s="24"/>
       <c r="W32" s="25"/>
       <c r="X32" s="19"/>
       <c r="Z32" s="23"/>
       <c r="AA32" s="24"/>
-      <c r="AB32" s="73" t="s">
+      <c r="AB32" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="71"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
       <c r="AE32" s="24"/>
       <c r="AH32" s="23"/>
       <c r="AI32" s="24"/>
-      <c r="AJ32" s="72" t="s">
+      <c r="AJ32" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AK32" s="71"/>
-      <c r="AL32" s="71"/>
+      <c r="AK32" s="92"/>
+      <c r="AL32" s="92"/>
       <c r="AM32" s="24"/>
       <c r="AP32" s="23"/>
       <c r="AQ32" s="24"/>
-      <c r="AR32" s="70" t="s">
+      <c r="AR32" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AS32" s="71"/>
-      <c r="AT32" s="71"/>
+      <c r="AS32" s="97"/>
+      <c r="AT32" s="97"/>
       <c r="AU32" s="24"/>
     </row>
     <row r="33" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -17985,42 +20965,234 @@
       <c r="B40" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="C40" s="17">
+        <f>AVERAGE(C34:C39)</f>
+        <v>3.5</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" ref="D40:E40" si="36">AVERAGE(D34:D39)</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="E40" s="17">
+        <f t="shared" si="36"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F40" s="17">
+        <f>AVERAGE(F34:F39)</f>
+        <v>1.8333333333333333</v>
+      </c>
       <c r="J40" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="K40" s="17">
+        <f>AVERAGE(K34:K39)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L40" s="17">
+        <f t="shared" ref="L40:M40" si="37">AVERAGE(L34:L39)</f>
+        <v>5.5</v>
+      </c>
+      <c r="M40" s="17">
+        <f t="shared" si="37"/>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="N40" s="17">
+        <f>AVERAGE(N34:N39)</f>
+        <v>3.6666666666666665</v>
+      </c>
       <c r="R40" s="21" t="s">
         <v>18</v>
+      </c>
+      <c r="S40" s="17">
+        <f>AVERAGE(S34:S39)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="T40" s="17">
+        <f t="shared" ref="T40:U40" si="38">AVERAGE(T34:T39)</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="U40" s="17">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="V40" s="17">
+        <f>AVERAGE(V34:V39)</f>
+        <v>2.8333333333333335</v>
       </c>
       <c r="X40" s="19"/>
       <c r="AA40" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="AB40" s="17">
+        <f>AVERAGE(AB34:AB39)</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="AC40" s="17">
+        <f t="shared" ref="AC40:AD40" si="39">AVERAGE(AC34:AC39)</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="AD40" s="17">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="AE40" s="17">
+        <f>AVERAGE(AE34:AE39)</f>
+        <v>2.8333333333333335</v>
+      </c>
       <c r="AI40" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="AJ40" s="17">
+        <f>AVERAGE(AJ34:AJ39)</f>
+        <v>4</v>
+      </c>
+      <c r="AK40" s="17">
+        <f t="shared" ref="AK40:AL40" si="40">AVERAGE(AK34:AK39)</f>
+        <v>5</v>
+      </c>
+      <c r="AL40" s="17">
+        <f t="shared" si="40"/>
+        <v>5.25</v>
+      </c>
+      <c r="AM40" s="17">
+        <f>AVERAGE(AM34:AM39)</f>
+        <v>3.25</v>
+      </c>
       <c r="AQ40" s="21" t="s">
         <v>18</v>
+      </c>
+      <c r="AR40" s="17">
+        <f>AVERAGE(AR34:AR39)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AS40" s="17">
+        <f t="shared" ref="AS40:AT40" si="41">AVERAGE(AS34:AS39)</f>
+        <v>4.25</v>
+      </c>
+      <c r="AT40" s="17">
+        <f t="shared" si="41"/>
+        <v>5.5</v>
+      </c>
+      <c r="AU40" s="17">
+        <f>AVERAGE(AU34:AU39)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B41" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="C41" s="17">
+        <f>_xlfn.STDEV.S(C34:C39)</f>
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" ref="D41:E41" si="42">_xlfn.STDEV.S(D34:D39)</f>
+        <v>0.98319208025017601</v>
+      </c>
+      <c r="E41" s="17">
+        <f t="shared" si="42"/>
+        <v>0.51639777949432231</v>
+      </c>
+      <c r="F41" s="17">
+        <f>_xlfn.STDEV.S(F34:F39)</f>
+        <v>0.40824829046386274</v>
+      </c>
       <c r="J41" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="K41" s="17">
+        <f>_xlfn.STDEV.S(K34:K39)</f>
+        <v>0.51639777949432131</v>
+      </c>
+      <c r="L41" s="17">
+        <f t="shared" ref="L41:M41" si="43">_xlfn.STDEV.S(L34:L39)</f>
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="M41" s="17">
+        <f t="shared" si="43"/>
+        <v>0.75277265270908222</v>
+      </c>
+      <c r="N41" s="17">
+        <f>_xlfn.STDEV.S(N34:N39)</f>
+        <v>0.51639777949432131</v>
+      </c>
       <c r="R41" s="21" t="s">
         <v>19</v>
+      </c>
+      <c r="S41" s="17">
+        <f>_xlfn.STDEV.S(S34:S39)</f>
+        <v>0.51639777949432131</v>
+      </c>
+      <c r="T41" s="17">
+        <f t="shared" ref="T41:U41" si="44">_xlfn.STDEV.S(T34:T39)</f>
+        <v>0.75277265270908222</v>
+      </c>
+      <c r="U41" s="17">
+        <f t="shared" si="44"/>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="V41" s="17">
+        <f>_xlfn.STDEV.S(V34:V39)</f>
+        <v>0.40824829046386357</v>
       </c>
       <c r="X41" s="19"/>
       <c r="AA41" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="AB41" s="17">
+        <f>_xlfn.STDEV.S(AB34:AB39)</f>
+        <v>0.75277265270908045</v>
+      </c>
+      <c r="AC41" s="17">
+        <f t="shared" ref="AC41:AD41" si="45">_xlfn.STDEV.S(AC34:AC39)</f>
+        <v>0.98319208025017601</v>
+      </c>
+      <c r="AD41" s="17">
+        <f t="shared" si="45"/>
+        <v>1.2649110640673518</v>
+      </c>
+      <c r="AE41" s="17">
+        <f>_xlfn.STDEV.S(AE34:AE39)</f>
+        <v>0.75277265270908122</v>
+      </c>
       <c r="AI41" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="AJ41" s="17">
+        <f>_xlfn.STDEV.S(AJ34:AJ39)</f>
+        <v>0</v>
+      </c>
+      <c r="AK41" s="17">
+        <f t="shared" ref="AK41:AL41" si="46">_xlfn.STDEV.S(AK34:AK39)</f>
+        <v>1.1547005383792515</v>
+      </c>
+      <c r="AL41" s="17">
+        <f t="shared" si="46"/>
+        <v>0.9574271077563381</v>
+      </c>
+      <c r="AM41" s="17">
+        <f>_xlfn.STDEV.S(AM34:AM39)</f>
+        <v>0.5</v>
+      </c>
       <c r="AQ41" s="21" t="s">
         <v>19</v>
+      </c>
+      <c r="AR41" s="17">
+        <f>_xlfn.STDEV.S(AR34:AR39)</f>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="AS41" s="17">
+        <f t="shared" ref="AS41:AT41" si="47">_xlfn.STDEV.S(AS34:AS39)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AT41" s="17">
+        <f t="shared" si="47"/>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="AU41" s="17">
+        <f>_xlfn.STDEV.S(AU34:AU39)</f>
+        <v>1.1547005383792515</v>
       </c>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.25">
@@ -18028,52 +21200,124 @@
       <c r="B42" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
+      <c r="C42" s="33">
+        <f>C41/SQRT(6)</f>
+        <v>0.22360679774997896</v>
+      </c>
+      <c r="D42" s="33">
+        <f t="shared" ref="D42:E42" si="48">D41/SQRT(6)</f>
+        <v>0.40138648595974363</v>
+      </c>
+      <c r="E42" s="33">
+        <f t="shared" si="48"/>
+        <v>0.21081851067789201</v>
+      </c>
+      <c r="F42" s="33">
+        <f>F41/SQRT(6)</f>
+        <v>0.16666666666666657</v>
+      </c>
       <c r="I42" s="28"/>
       <c r="J42" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
+      <c r="K42" s="33">
+        <f>K41/SQRT(6)</f>
+        <v>0.21081851067789159</v>
+      </c>
+      <c r="L42" s="33">
+        <f t="shared" ref="L42:M42" si="49">L41/SQRT(6)</f>
+        <v>0.22360679774997896</v>
+      </c>
+      <c r="M42" s="33">
+        <f t="shared" si="49"/>
+        <v>0.30731814857643008</v>
+      </c>
+      <c r="N42" s="33">
+        <f>N41/SQRT(6)</f>
+        <v>0.21081851067789159</v>
+      </c>
       <c r="Q42" s="28"/>
       <c r="R42" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
+      <c r="S42" s="33">
+        <f>S41/SQRT(6)</f>
+        <v>0.21081851067789159</v>
+      </c>
+      <c r="T42" s="33">
+        <f t="shared" ref="T42:U42" si="50">T41/SQRT(6)</f>
+        <v>0.30731814857643008</v>
+      </c>
+      <c r="U42" s="33">
+        <f t="shared" si="50"/>
+        <v>0.36514837167011077</v>
+      </c>
+      <c r="V42" s="33">
+        <f>V41/SQRT(6)</f>
+        <v>0.16666666666666691</v>
+      </c>
       <c r="W42" s="25"/>
       <c r="X42" s="19"/>
       <c r="Z42" s="28"/>
       <c r="AA42" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
+      <c r="AB42" s="33">
+        <f>AB41/SQRT(6)</f>
+        <v>0.30731814857642936</v>
+      </c>
+      <c r="AC42" s="33">
+        <f t="shared" ref="AC42:AD42" si="51">AC41/SQRT(6)</f>
+        <v>0.40138648595974363</v>
+      </c>
+      <c r="AD42" s="33">
+        <f t="shared" si="51"/>
+        <v>0.51639777949432231</v>
+      </c>
+      <c r="AE42" s="33">
+        <f>AE41/SQRT(6)</f>
+        <v>0.30731814857642969</v>
+      </c>
       <c r="AH42" s="28"/>
       <c r="AI42" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AJ42" s="33"/>
-      <c r="AK42" s="33"/>
-      <c r="AL42" s="33"/>
-      <c r="AM42" s="33"/>
+      <c r="AJ42" s="33">
+        <f>AJ41/SQRT(6)</f>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="33">
+        <f t="shared" ref="AK42:AL42" si="52">AK41/SQRT(6)</f>
+        <v>0.47140452079103168</v>
+      </c>
+      <c r="AL42" s="33">
+        <f t="shared" si="52"/>
+        <v>0.39086797998528583</v>
+      </c>
+      <c r="AM42" s="33">
+        <f>AM41/SQRT(6)</f>
+        <v>0.20412414523193154</v>
+      </c>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AR42" s="33"/>
-      <c r="AS42" s="33"/>
-      <c r="AT42" s="33"/>
-      <c r="AU42" s="33"/>
+      <c r="AR42" s="33">
+        <f>AR41/SQRT(6)</f>
+        <v>0.23570226039551584</v>
+      </c>
+      <c r="AS42" s="33">
+        <f t="shared" ref="AS42:AT42" si="53">AS41/SQRT(6)</f>
+        <v>0.20412414523193154</v>
+      </c>
+      <c r="AT42" s="33">
+        <f t="shared" si="53"/>
+        <v>0.23570226039551584</v>
+      </c>
+      <c r="AU42" s="33">
+        <f>AU41/SQRT(6)</f>
+        <v>0.47140452079103168</v>
+      </c>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="X43" s="19"/>
@@ -18110,9 +21354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18155,55 +21397,55 @@
       <c r="AP1" s="17"/>
     </row>
     <row r="2" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
       <c r="X2" s="19"/>
-      <c r="Z2" s="68" t="s">
+      <c r="Z2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="87"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -18213,53 +21455,53 @@
     <row r="4" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="24"/>
       <c r="I4" s="23"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
       <c r="N4" s="24"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="24"/>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
       <c r="V4" s="24"/>
       <c r="W4" s="25"/>
       <c r="X4" s="19"/>
       <c r="Z4" s="23"/>
       <c r="AA4" s="24"/>
-      <c r="AB4" s="73" t="s">
+      <c r="AB4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
       <c r="AE4" s="24"/>
       <c r="AH4" s="23"/>
       <c r="AI4" s="24"/>
-      <c r="AJ4" s="72" t="s">
+      <c r="AJ4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
       <c r="AM4" s="24"/>
       <c r="AP4" s="23"/>
       <c r="AQ4" s="24"/>
-      <c r="AR4" s="70" t="s">
+      <c r="AR4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
       <c r="AU4" s="24"/>
     </row>
     <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -18492,6 +21734,9 @@
       <c r="C8" s="17">
         <v>5.77</v>
       </c>
+      <c r="D8" s="17">
+        <v>0.59</v>
+      </c>
       <c r="I8" s="22" t="s">
         <v>16</v>
       </c>
@@ -18501,6 +21746,9 @@
       <c r="K8" s="17">
         <v>3.47</v>
       </c>
+      <c r="L8" s="17">
+        <v>0.37</v>
+      </c>
       <c r="Q8" s="22" t="s">
         <v>16</v>
       </c>
@@ -18509,6 +21757,9 @@
       </c>
       <c r="S8" s="17">
         <v>2.8</v>
+      </c>
+      <c r="T8" s="17">
+        <v>0.36</v>
       </c>
       <c r="X8" s="19"/>
       <c r="Z8" s="22" t="s">
@@ -18529,6 +21780,9 @@
       <c r="AJ8" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="AK8" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="AP8" s="22" t="s">
         <v>16</v>
       </c>
@@ -18536,6 +21790,9 @@
         <v>14</v>
       </c>
       <c r="AR8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -18546,7 +21803,9 @@
       <c r="C9" s="30">
         <v>5.2</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="17">
+        <v>0.48</v>
+      </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="J9" s="17" t="s">
@@ -18555,7 +21814,9 @@
       <c r="K9" s="30">
         <v>3.09</v>
       </c>
-      <c r="L9" s="30"/>
+      <c r="L9" s="17">
+        <v>0.44</v>
+      </c>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="R9" s="17" t="s">
@@ -18564,7 +21825,9 @@
       <c r="S9" s="30">
         <v>2.96</v>
       </c>
-      <c r="T9" s="30"/>
+      <c r="T9" s="17">
+        <v>0.34</v>
+      </c>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
       <c r="W9" s="30"/>
@@ -18584,7 +21847,9 @@
       <c r="AJ9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AK9" s="30"/>
+      <c r="AK9" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="AL9" s="30"/>
       <c r="AM9" s="30"/>
       <c r="AQ9" s="17" t="s">
@@ -18593,7 +21858,9 @@
       <c r="AR9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AS9" s="30"/>
+      <c r="AS9" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="AT9" s="30"/>
       <c r="AU9" s="30"/>
     </row>
@@ -18843,53 +22110,53 @@
     <row r="18" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="24"/>
       <c r="I18" s="23"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="74" t="s">
+      <c r="K18" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
       <c r="N18" s="24"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="24"/>
-      <c r="S18" s="75" t="s">
+      <c r="S18" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
       <c r="V18" s="24"/>
       <c r="W18" s="25"/>
       <c r="X18" s="19"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="24"/>
-      <c r="AB18" s="76" t="s">
+      <c r="AB18" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
       <c r="AE18" s="24"/>
       <c r="AH18" s="23"/>
       <c r="AI18" s="24"/>
-      <c r="AJ18" s="74" t="s">
+      <c r="AJ18" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
       <c r="AM18" s="24"/>
       <c r="AP18" s="23"/>
       <c r="AQ18" s="24"/>
-      <c r="AR18" s="75" t="s">
+      <c r="AR18" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
+      <c r="AS18" s="97"/>
+      <c r="AT18" s="97"/>
       <c r="AU18" s="24"/>
     </row>
     <row r="19" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -19122,6 +22389,9 @@
       <c r="C22" s="17">
         <v>5.86</v>
       </c>
+      <c r="D22" s="17">
+        <v>0.53</v>
+      </c>
       <c r="I22" s="22" t="s">
         <v>16</v>
       </c>
@@ -19131,6 +22401,9 @@
       <c r="K22" s="17">
         <v>4.25</v>
       </c>
+      <c r="L22" s="17">
+        <v>0.46</v>
+      </c>
       <c r="Q22" s="22" t="s">
         <v>16</v>
       </c>
@@ -19139,6 +22412,9 @@
       </c>
       <c r="S22" s="17">
         <v>2.97</v>
+      </c>
+      <c r="T22" s="17">
+        <v>0.38</v>
       </c>
       <c r="X22" s="19"/>
       <c r="Z22" s="22" t="s">
@@ -19159,6 +22435,9 @@
       <c r="AJ22" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="AK22" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="AP22" s="22" t="s">
         <v>16</v>
       </c>
@@ -19166,6 +22445,9 @@
         <v>14</v>
       </c>
       <c r="AR22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS22" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -19176,7 +22458,9 @@
       <c r="C23" s="30">
         <v>3.33</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="17">
+        <v>0.43</v>
+      </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="J23" s="17" t="s">
@@ -19185,7 +22469,9 @@
       <c r="K23" s="30">
         <v>2.2400000000000002</v>
       </c>
-      <c r="L23" s="30"/>
+      <c r="L23" s="17">
+        <v>0.43</v>
+      </c>
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
       <c r="R23" s="17" t="s">
@@ -19194,7 +22480,9 @@
       <c r="S23" s="30">
         <v>5.03</v>
       </c>
-      <c r="T23" s="30"/>
+      <c r="T23" s="17">
+        <v>0.36</v>
+      </c>
       <c r="U23" s="30"/>
       <c r="V23" s="30"/>
       <c r="W23" s="30"/>
@@ -19214,7 +22502,9 @@
       <c r="AJ23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AK23" s="30"/>
+      <c r="AK23" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="AL23" s="30"/>
       <c r="AM23" s="30"/>
       <c r="AQ23" s="17" t="s">
@@ -19223,7 +22513,9 @@
       <c r="AR23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AS23" s="30"/>
+      <c r="AS23" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="AT23" s="30"/>
       <c r="AU23" s="30"/>
     </row>
@@ -19473,53 +22765,53 @@
     <row r="32" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="24"/>
       <c r="I32" s="23"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="74" t="s">
+      <c r="K32" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
       <c r="N32" s="24"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="24"/>
-      <c r="S32" s="75" t="s">
+      <c r="S32" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="97"/>
       <c r="V32" s="24"/>
       <c r="W32" s="25"/>
       <c r="X32" s="19"/>
       <c r="Z32" s="23"/>
       <c r="AA32" s="24"/>
-      <c r="AB32" s="76" t="s">
+      <c r="AB32" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="71"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
       <c r="AE32" s="24"/>
       <c r="AH32" s="23"/>
       <c r="AI32" s="24"/>
-      <c r="AJ32" s="74" t="s">
+      <c r="AJ32" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AK32" s="71"/>
-      <c r="AL32" s="71"/>
+      <c r="AK32" s="94"/>
+      <c r="AL32" s="94"/>
       <c r="AM32" s="24"/>
       <c r="AP32" s="23"/>
       <c r="AQ32" s="24"/>
-      <c r="AR32" s="75" t="s">
+      <c r="AR32" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="AS32" s="71"/>
-      <c r="AT32" s="71"/>
+      <c r="AS32" s="97"/>
+      <c r="AT32" s="97"/>
       <c r="AU32" s="24"/>
     </row>
     <row r="33" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -19752,6 +23044,9 @@
       <c r="C36" s="17">
         <v>4.3099999999999996</v>
       </c>
+      <c r="D36" s="17">
+        <v>0.61</v>
+      </c>
       <c r="I36" s="22" t="s">
         <v>16</v>
       </c>
@@ -19761,6 +23056,9 @@
       <c r="K36" s="17">
         <v>3.16</v>
       </c>
+      <c r="L36" s="17">
+        <v>0.69</v>
+      </c>
       <c r="Q36" s="22" t="s">
         <v>16</v>
       </c>
@@ -19769,6 +23067,9 @@
       </c>
       <c r="S36" s="17">
         <v>6.1</v>
+      </c>
+      <c r="T36" s="17">
+        <v>0.81</v>
       </c>
       <c r="X36" s="19"/>
       <c r="Z36" s="22" t="s">
@@ -19789,6 +23090,9 @@
       <c r="AJ36" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="AK36" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="AP36" s="22" t="s">
         <v>16</v>
       </c>
@@ -19796,6 +23100,9 @@
         <v>14</v>
       </c>
       <c r="AR36" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS36" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -19806,7 +23113,9 @@
       <c r="C37" s="30">
         <v>2.86</v>
       </c>
-      <c r="D37" s="30"/>
+      <c r="D37" s="17">
+        <v>0.3</v>
+      </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="J37" s="17" t="s">
@@ -19815,7 +23124,9 @@
       <c r="K37" s="30">
         <v>5.36</v>
       </c>
-      <c r="L37" s="30"/>
+      <c r="L37" s="17">
+        <v>0.51</v>
+      </c>
       <c r="M37" s="30"/>
       <c r="N37" s="30"/>
       <c r="R37" s="17" t="s">
@@ -19824,7 +23135,9 @@
       <c r="S37" s="30">
         <v>4.01</v>
       </c>
-      <c r="T37" s="30"/>
+      <c r="T37" s="17">
+        <v>0.51</v>
+      </c>
       <c r="U37" s="30"/>
       <c r="V37" s="30"/>
       <c r="W37" s="30"/>
@@ -19844,7 +23157,9 @@
       <c r="AJ37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AK37" s="30"/>
+      <c r="AK37" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="AL37" s="30"/>
       <c r="AM37" s="30"/>
       <c r="AQ37" s="17" t="s">
@@ -19853,7 +23168,9 @@
       <c r="AR37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AS37" s="30"/>
+      <c r="AS37" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="AT37" s="30"/>
       <c r="AU37" s="30"/>
     </row>
@@ -20208,8 +23525,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AR4:AT4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="Z2:AU2"/>
@@ -20228,6 +23543,8 @@
     <mergeCell ref="S18:U18"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="AR18:AT18"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AR4:AT4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20287,55 +23604,55 @@
       <c r="AP1" s="17"/>
     </row>
     <row r="2" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
       <c r="X2" s="19"/>
-      <c r="Z2" s="68" t="s">
+      <c r="Z2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="87"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -20345,53 +23662,53 @@
     <row r="4" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="24"/>
       <c r="I4" s="23"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
       <c r="N4" s="24"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="24"/>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
       <c r="V4" s="24"/>
       <c r="W4" s="25"/>
       <c r="X4" s="19"/>
       <c r="Z4" s="23"/>
       <c r="AA4" s="24"/>
-      <c r="AB4" s="73" t="s">
+      <c r="AB4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
       <c r="AE4" s="24"/>
       <c r="AH4" s="23"/>
       <c r="AI4" s="24"/>
-      <c r="AJ4" s="72" t="s">
+      <c r="AJ4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
       <c r="AM4" s="24"/>
       <c r="AP4" s="23"/>
       <c r="AQ4" s="24"/>
-      <c r="AR4" s="70" t="s">
+      <c r="AR4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
       <c r="AU4" s="24"/>
     </row>
     <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -20928,53 +24245,53 @@
     <row r="18" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="24"/>
       <c r="I18" s="23"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="74" t="s">
+      <c r="K18" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
       <c r="N18" s="24"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="24"/>
-      <c r="S18" s="75" t="s">
+      <c r="S18" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
       <c r="V18" s="24"/>
       <c r="W18" s="25"/>
       <c r="X18" s="19"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="24"/>
-      <c r="AB18" s="76" t="s">
+      <c r="AB18" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
       <c r="AE18" s="24"/>
       <c r="AH18" s="23"/>
       <c r="AI18" s="24"/>
-      <c r="AJ18" s="74" t="s">
+      <c r="AJ18" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
       <c r="AM18" s="24"/>
       <c r="AP18" s="23"/>
       <c r="AQ18" s="24"/>
-      <c r="AR18" s="75" t="s">
+      <c r="AR18" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
+      <c r="AS18" s="97"/>
+      <c r="AT18" s="97"/>
       <c r="AU18" s="24"/>
     </row>
     <row r="19" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -21498,53 +24815,53 @@
     <row r="32" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="24"/>
       <c r="I32" s="23"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="74" t="s">
+      <c r="K32" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
       <c r="N32" s="24"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="24"/>
-      <c r="S32" s="75" t="s">
+      <c r="S32" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="97"/>
       <c r="V32" s="24"/>
       <c r="W32" s="25"/>
       <c r="X32" s="19"/>
       <c r="Z32" s="23"/>
       <c r="AA32" s="24"/>
-      <c r="AB32" s="76" t="s">
+      <c r="AB32" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="71"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
       <c r="AE32" s="24"/>
       <c r="AH32" s="23"/>
       <c r="AI32" s="24"/>
-      <c r="AJ32" s="74" t="s">
+      <c r="AJ32" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AK32" s="71"/>
-      <c r="AL32" s="71"/>
+      <c r="AK32" s="94"/>
+      <c r="AL32" s="94"/>
       <c r="AM32" s="24"/>
       <c r="AP32" s="23"/>
       <c r="AQ32" s="24"/>
-      <c r="AR32" s="75" t="s">
+      <c r="AR32" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="AS32" s="71"/>
-      <c r="AT32" s="71"/>
+      <c r="AS32" s="97"/>
+      <c r="AT32" s="97"/>
       <c r="AU32" s="24"/>
     </row>
     <row r="33" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -22209,29 +25526,125 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="66" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="64" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="66" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" customWidth="1"/>
+    <col min="27" max="27" width="3.7109375" style="66" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" style="64" customWidth="1"/>
+    <col min="29" max="29" width="3.7109375" style="66" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" customWidth="1"/>
+    <col min="38" max="38" width="3.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="Q3" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AD3" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="G4" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="K4" s="75" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="R4" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="V4" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="AE4" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AI4" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="81"/>
+      <c r="AM4" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B5" s="79"/>
       <c r="C5" s="62">
         <v>5</v>
       </c>
@@ -22241,17 +25654,76 @@
       <c r="E5" s="62">
         <v>10</v>
       </c>
+      <c r="G5" s="62">
+        <v>5</v>
+      </c>
+      <c r="H5" s="62">
+        <v>7.5</v>
+      </c>
       <c r="I5" s="62">
+        <v>10</v>
+      </c>
+      <c r="K5" s="62">
         <v>5</v>
       </c>
-      <c r="J5" s="62">
+      <c r="L5" s="62">
         <v>7.5</v>
       </c>
-      <c r="K5" s="62">
+      <c r="M5" s="62">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="84">
+        <v>5</v>
+      </c>
+      <c r="S5" s="84">
+        <v>7.5</v>
+      </c>
+      <c r="T5" s="84">
+        <v>10</v>
+      </c>
+      <c r="U5" s="85"/>
+      <c r="V5" s="84">
+        <v>5</v>
+      </c>
+      <c r="W5" s="84">
+        <v>7.5</v>
+      </c>
+      <c r="X5" s="84">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG5" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI5" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ5" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK5" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM5" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO5" s="62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B6" s="62" t="s">
         <v>43</v>
       </c>
@@ -22264,23 +25736,92 @@
       <c r="E6">
         <v>8</v>
       </c>
-      <c r="H6" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ref="I6:K8" si="0">C6*0.7</f>
+      <c r="G6">
+        <f t="shared" ref="G6:I8" si="0">C6*0.7</f>
         <v>1.4</v>
       </c>
-      <c r="J6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="K6">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" ref="K6:M8" si="1">G6*0.7</f>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1.4699999999999998</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>3.9199999999999995</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:X8" si="2">R6*1.4</f>
+        <v>2.8</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+      <c r="AD6" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
+      <c r="AG6">
+        <v>8</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" ref="AI6:AK8" si="3">AE6*0.7</f>
+        <v>1.4</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="3"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" ref="AM6:AM8" si="4">AI6*0.7</f>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ref="AN6:AN8" si="5">AJ6*0.7</f>
+        <v>1.4699999999999998</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" ref="AO6:AO8" si="6">AK6*0.7</f>
+        <v>3.9199999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B7" s="62" t="s">
         <v>44</v>
       </c>
@@ -22293,23 +25834,92 @@
       <c r="E7">
         <v>9</v>
       </c>
-      <c r="H7" s="62" t="s">
-        <v>44</v>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>4.4099999999999993</v>
+      </c>
+      <c r="Q7" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>9</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>12.6</v>
+      </c>
+      <c r="AD7" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7">
+        <v>5</v>
+      </c>
+      <c r="AG7">
+        <v>9</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="3"/>
         <v>2.8</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
+      <c r="AJ7">
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
+      <c r="AK7">
+        <f t="shared" si="3"/>
         <v>6.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="AM7">
+        <f t="shared" si="4"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="5"/>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="6"/>
+        <v>4.4099999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B8" s="62" t="s">
         <v>45</v>
       </c>
@@ -22322,25 +25932,561 @@
       <c r="E8">
         <v>10</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>45</v>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999995</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2.9399999999999995</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>3.4299999999999993</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="Q8" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="AD8" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8">
+        <v>6</v>
+      </c>
+      <c r="AF8">
+        <v>7</v>
+      </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="3"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
+      <c r="AJ8">
+        <f t="shared" si="3"/>
         <v>4.8999999999999995</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
+      <c r="AK8">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
+      <c r="AM8">
+        <f t="shared" si="4"/>
+        <v>2.9399999999999995</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="5"/>
+        <v>3.4299999999999993</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="6"/>
+        <v>4.8999999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Q9" s="62"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C10" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="G10" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="K10" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="R10" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="V10" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="AE10" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AI10" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ10" s="81"/>
+      <c r="AK10" s="81"/>
+      <c r="AM10" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B11" s="79"/>
+      <c r="C11" s="62">
+        <v>5</v>
+      </c>
+      <c r="D11" s="62">
+        <v>7.5</v>
+      </c>
+      <c r="E11" s="62">
+        <v>10</v>
+      </c>
+      <c r="G11" s="62">
+        <v>5</v>
+      </c>
+      <c r="H11" s="62">
+        <v>7.5</v>
+      </c>
+      <c r="I11" s="62">
+        <v>10</v>
+      </c>
+      <c r="K11" s="62">
+        <v>5</v>
+      </c>
+      <c r="L11" s="62">
+        <v>7.5</v>
+      </c>
+      <c r="M11" s="62">
+        <v>10</v>
+      </c>
+      <c r="N11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="84">
+        <v>5</v>
+      </c>
+      <c r="S11" s="84">
+        <v>7.5</v>
+      </c>
+      <c r="T11" s="84">
+        <v>10</v>
+      </c>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84">
+        <v>5</v>
+      </c>
+      <c r="W11" s="84">
+        <v>7.5</v>
+      </c>
+      <c r="X11" s="84">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF11" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG11" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI11" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ11" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK11" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM11" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN11" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO11" s="62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B12" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <f>C6*0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="D12">
+        <f>D6*0.18</f>
+        <v>0.54</v>
+      </c>
+      <c r="E12">
+        <f>E6*0.21</f>
+        <v>1.68</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:I14" si="7">C12*0.7</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="7"/>
+        <v>0.378</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:M14" si="8">G12*0.7</f>
+        <v>9.799999999999999E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="8"/>
+        <v>0.2646</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>0.82319999999999993</v>
+      </c>
+      <c r="Q12" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12">
+        <f>R6*0.21</f>
+        <v>0.42</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:T12" si="9">S6*0.21</f>
+        <v>0.63</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="9"/>
+        <v>1.68</v>
+      </c>
+      <c r="V12">
+        <f>V6*0.32</f>
+        <v>0.89599999999999991</v>
+      </c>
+      <c r="W12">
+        <f t="shared" ref="W12:X12" si="10">W6*0.32</f>
+        <v>1.3439999999999999</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="10"/>
+        <v>3.5839999999999996</v>
+      </c>
+      <c r="AD12" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE12">
+        <f>AE6*0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="AF12">
+        <f>AF6*0.18</f>
+        <v>0.54</v>
+      </c>
+      <c r="AG12">
+        <f>AG6*0.21</f>
+        <v>1.68</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" ref="AI12:AK14" si="11">AE12*0.7</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="11"/>
+        <v>0.378</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="11"/>
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" ref="AM12:AM14" si="12">AI12*0.7</f>
+        <v>9.799999999999999E-2</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" ref="AN12:AN14" si="13">AJ12*0.7</f>
+        <v>0.2646</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" ref="AO12:AO14" si="14">AK12*0.7</f>
+        <v>0.82319999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B13" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C14" si="15">C7*0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D14" si="16">D7*0.18</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E14" si="17">E7*0.21</f>
+        <v>1.89</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="7"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>1.323</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>0.19599999999999998</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>0.44099999999999989</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>0.92609999999999992</v>
+      </c>
+      <c r="Q13" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:T14" si="18">R7*0.21</f>
+        <v>0.84</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="18"/>
+        <v>1.05</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="18"/>
+        <v>1.89</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ref="V13:X14" si="19">V7*0.32</f>
+        <v>1.7919999999999998</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="19"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="19"/>
+        <v>4.032</v>
+      </c>
+      <c r="AD13" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" ref="AE13:AE14" si="20">AE7*0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" ref="AF13:AF14" si="21">AF7*0.18</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" ref="AG13:AG14" si="22">AG7*0.21</f>
+        <v>1.89</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="11"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="11"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="11"/>
+        <v>1.323</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="12"/>
+        <v>0.19599999999999998</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="13"/>
+        <v>0.44099999999999989</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="14"/>
+        <v>0.92609999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B14" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="15"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="16"/>
+        <v>1.26</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="17"/>
+        <v>2.1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="7"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>0.8819999999999999</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="7"/>
+        <v>1.47</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
+        <v>0.61739999999999984</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="Q14" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="18"/>
+        <v>1.26</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="18"/>
+        <v>1.47</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="18"/>
+        <v>2.1</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="19"/>
+        <v>2.6879999999999997</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="19"/>
+        <v>3.1359999999999997</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="19"/>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="AD14" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="20"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="21"/>
+        <v>1.26</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="22"/>
+        <v>2.1</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="11"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="11"/>
+        <v>0.8819999999999999</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="11"/>
+        <v>1.47</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="12"/>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="13"/>
+        <v>0.61739999999999984</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="14"/>
+        <v>1.0289999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="62"/>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="62"/>
+    </row>
+    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q19" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/bot327-cyano-data-02.xlsx
+++ b/data/bot327-cyano-data-02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box Sync\misc-github-repos\btmonier.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Leaf Length" sheetId="4" r:id="rId1"/>
@@ -784,35 +784,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5527,7 +5527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5565,54 +5565,54 @@
       </c>
     </row>
     <row r="2" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="Z2" s="87" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="Z2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -5624,53 +5624,53 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="93" t="s">
+      <c r="L4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="96" t="s">
+      <c r="T4" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
       <c r="W4" s="11"/>
       <c r="X4" s="15"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="88" t="s">
+      <c r="AC4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AK4" s="93" t="s">
+      <c r="AK4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
-      <c r="AS4" s="96" t="s">
+      <c r="AS4" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
     </row>
     <row r="5" spans="1:47" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -9677,53 +9677,53 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="88" t="s">
+      <c r="D65" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="88"/>
-      <c r="F65" s="88"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="93" t="s">
+      <c r="L65" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="M65" s="93"/>
-      <c r="N65" s="93"/>
+      <c r="M65" s="87"/>
+      <c r="N65" s="87"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-      <c r="T65" s="96" t="s">
+      <c r="T65" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="U65" s="96"/>
-      <c r="V65" s="96"/>
+      <c r="U65" s="88"/>
+      <c r="V65" s="88"/>
       <c r="W65" s="11"/>
       <c r="X65" s="15"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
-      <c r="AC65" s="88" t="s">
+      <c r="AC65" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="AD65" s="88"/>
-      <c r="AE65" s="88"/>
+      <c r="AD65" s="86"/>
+      <c r="AE65" s="86"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
-      <c r="AK65" s="93" t="s">
+      <c r="AK65" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AL65" s="93"/>
-      <c r="AM65" s="93"/>
+      <c r="AL65" s="87"/>
+      <c r="AM65" s="87"/>
       <c r="AP65" s="2"/>
       <c r="AQ65" s="2"/>
       <c r="AR65" s="2"/>
-      <c r="AS65" s="96" t="s">
+      <c r="AS65" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AT65" s="96"/>
-      <c r="AU65" s="96"/>
+      <c r="AT65" s="88"/>
+      <c r="AU65" s="88"/>
     </row>
     <row r="66" spans="1:47" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
@@ -13723,53 +13723,53 @@
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="88" t="s">
+      <c r="D126" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E126" s="88"/>
-      <c r="F126" s="88"/>
+      <c r="E126" s="86"/>
+      <c r="F126" s="86"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
-      <c r="L126" s="93" t="s">
+      <c r="L126" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="M126" s="93"/>
-      <c r="N126" s="93"/>
+      <c r="M126" s="87"/>
+      <c r="N126" s="87"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
-      <c r="T126" s="96" t="s">
+      <c r="T126" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="U126" s="96"/>
-      <c r="V126" s="96"/>
+      <c r="U126" s="88"/>
+      <c r="V126" s="88"/>
       <c r="W126" s="11"/>
       <c r="X126" s="15"/>
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
-      <c r="AC126" s="88" t="s">
+      <c r="AC126" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="AD126" s="88"/>
-      <c r="AE126" s="88"/>
+      <c r="AD126" s="86"/>
+      <c r="AE126" s="86"/>
       <c r="AH126" s="2"/>
       <c r="AI126" s="2"/>
       <c r="AJ126" s="2"/>
-      <c r="AK126" s="93" t="s">
+      <c r="AK126" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AL126" s="93"/>
-      <c r="AM126" s="93"/>
+      <c r="AL126" s="87"/>
+      <c r="AM126" s="87"/>
       <c r="AP126" s="2"/>
       <c r="AQ126" s="2"/>
       <c r="AR126" s="2"/>
-      <c r="AS126" s="96" t="s">
+      <c r="AS126" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AT126" s="96"/>
-      <c r="AU126" s="96"/>
+      <c r="AT126" s="88"/>
+      <c r="AU126" s="88"/>
     </row>
     <row r="127" spans="1:47" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="37" t="s">
@@ -17760,13 +17760,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="AK126:AM126"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="AS126:AU126"/>
-    <mergeCell ref="AC126:AE126"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="L126:N126"/>
     <mergeCell ref="A2:V2"/>
     <mergeCell ref="Z2:AU2"/>
     <mergeCell ref="D4:F4"/>
@@ -17780,6 +17773,13 @@
     <mergeCell ref="AK65:AM65"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="AK126:AM126"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="AS126:AU126"/>
+    <mergeCell ref="AC126:AE126"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="L126:N126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -17846,55 +17846,55 @@
       </c>
     </row>
     <row r="2" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
       <c r="X2" s="19"/>
-      <c r="Z2" s="87" t="s">
+      <c r="Z2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -17904,53 +17904,53 @@
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="24"/>
       <c r="I4" s="23"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
       <c r="N4" s="24"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="24"/>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
       <c r="V4" s="24"/>
       <c r="W4" s="25"/>
       <c r="X4" s="19"/>
       <c r="Z4" s="23"/>
       <c r="AA4" s="24"/>
-      <c r="AB4" s="88" t="s">
+      <c r="AB4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
       <c r="AE4" s="24"/>
       <c r="AH4" s="23"/>
       <c r="AI4" s="24"/>
-      <c r="AJ4" s="91" t="s">
+      <c r="AJ4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
       <c r="AM4" s="24"/>
       <c r="AP4" s="23"/>
       <c r="AQ4" s="24"/>
-      <c r="AR4" s="96" t="s">
+      <c r="AR4" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
       <c r="AU4" s="24"/>
     </row>
     <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -19046,53 +19046,53 @@
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="24"/>
       <c r="I18" s="23"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="91" t="s">
+      <c r="K18" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
       <c r="N18" s="24"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="24"/>
-      <c r="S18" s="96" t="s">
+      <c r="S18" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
       <c r="V18" s="24"/>
       <c r="W18" s="25"/>
       <c r="X18" s="19"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="24"/>
-      <c r="AB18" s="88" t="s">
+      <c r="AB18" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
       <c r="AE18" s="24"/>
       <c r="AH18" s="23"/>
       <c r="AI18" s="24"/>
-      <c r="AJ18" s="91" t="s">
+      <c r="AJ18" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AK18" s="92"/>
-      <c r="AL18" s="92"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
       <c r="AM18" s="24"/>
       <c r="AP18" s="23"/>
       <c r="AQ18" s="24"/>
-      <c r="AR18" s="96" t="s">
+      <c r="AR18" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AS18" s="97"/>
-      <c r="AT18" s="97"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="91"/>
       <c r="AU18" s="24"/>
     </row>
     <row r="19" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -20188,53 +20188,53 @@
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="24"/>
       <c r="I32" s="23"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="91" t="s">
+      <c r="K32" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
       <c r="N32" s="24"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="24"/>
-      <c r="S32" s="96" t="s">
+      <c r="S32" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="T32" s="97"/>
-      <c r="U32" s="97"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
       <c r="V32" s="24"/>
       <c r="W32" s="25"/>
       <c r="X32" s="19"/>
       <c r="Z32" s="23"/>
       <c r="AA32" s="24"/>
-      <c r="AB32" s="88" t="s">
+      <c r="AB32" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="89"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
       <c r="AE32" s="24"/>
       <c r="AH32" s="23"/>
       <c r="AI32" s="24"/>
-      <c r="AJ32" s="91" t="s">
+      <c r="AJ32" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AK32" s="92"/>
-      <c r="AL32" s="92"/>
+      <c r="AK32" s="94"/>
+      <c r="AL32" s="94"/>
       <c r="AM32" s="24"/>
       <c r="AP32" s="23"/>
       <c r="AQ32" s="24"/>
-      <c r="AR32" s="96" t="s">
+      <c r="AR32" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AS32" s="97"/>
-      <c r="AT32" s="97"/>
+      <c r="AS32" s="91"/>
+      <c r="AT32" s="91"/>
       <c r="AU32" s="24"/>
     </row>
     <row r="33" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -21324,6 +21324,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AR32:AT32"/>
+    <mergeCell ref="AJ32:AL32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="AB32:AD32"/>
     <mergeCell ref="A2:V2"/>
     <mergeCell ref="Z2:AU2"/>
     <mergeCell ref="S18:U18"/>
@@ -21338,12 +21344,6 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AR32:AT32"/>
-    <mergeCell ref="AJ32:AL32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="AB32:AD32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -21354,7 +21354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC38" sqref="AC38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21397,55 +21399,55 @@
       <c r="AP1" s="17"/>
     </row>
     <row r="2" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
       <c r="X2" s="19"/>
-      <c r="Z2" s="87" t="s">
+      <c r="Z2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -21455,53 +21457,53 @@
     <row r="4" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="24"/>
       <c r="I4" s="23"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="24"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="24"/>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
       <c r="V4" s="24"/>
       <c r="W4" s="25"/>
       <c r="X4" s="19"/>
       <c r="Z4" s="23"/>
       <c r="AA4" s="24"/>
-      <c r="AB4" s="88" t="s">
+      <c r="AB4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
       <c r="AE4" s="24"/>
       <c r="AH4" s="23"/>
       <c r="AI4" s="24"/>
-      <c r="AJ4" s="93" t="s">
+      <c r="AJ4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
       <c r="AM4" s="24"/>
       <c r="AP4" s="23"/>
       <c r="AQ4" s="24"/>
-      <c r="AR4" s="96" t="s">
+      <c r="AR4" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
       <c r="AU4" s="24"/>
     </row>
     <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -21770,6 +21772,9 @@
       </c>
       <c r="AB8" s="17">
         <v>2.16</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>0.28000000000000003</v>
       </c>
       <c r="AH8" s="22" t="s">
         <v>16</v>
@@ -21838,7 +21843,9 @@
       <c r="AB9" s="17">
         <v>2.13</v>
       </c>
-      <c r="AC9" s="30"/>
+      <c r="AC9" s="17">
+        <v>0.34</v>
+      </c>
       <c r="AD9" s="30"/>
       <c r="AE9" s="30"/>
       <c r="AI9" s="17" t="s">
@@ -22110,53 +22117,53 @@
     <row r="18" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="24"/>
       <c r="I18" s="23"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="95" t="s">
+      <c r="K18" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
       <c r="N18" s="24"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="24"/>
-      <c r="S18" s="98" t="s">
+      <c r="S18" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
       <c r="V18" s="24"/>
       <c r="W18" s="25"/>
       <c r="X18" s="19"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="24"/>
-      <c r="AB18" s="90" t="s">
+      <c r="AB18" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
       <c r="AE18" s="24"/>
       <c r="AH18" s="23"/>
       <c r="AI18" s="24"/>
-      <c r="AJ18" s="95" t="s">
+      <c r="AJ18" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="94"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" s="95"/>
       <c r="AM18" s="24"/>
       <c r="AP18" s="23"/>
       <c r="AQ18" s="24"/>
-      <c r="AR18" s="98" t="s">
+      <c r="AR18" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="AS18" s="97"/>
-      <c r="AT18" s="97"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="91"/>
       <c r="AU18" s="24"/>
     </row>
     <row r="19" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -22425,6 +22432,9 @@
       </c>
       <c r="AB22" s="17">
         <v>4</v>
+      </c>
+      <c r="AC22" s="17">
+        <v>0.26</v>
       </c>
       <c r="AH22" s="22" t="s">
         <v>16</v>
@@ -22493,7 +22503,9 @@
       <c r="AB23" s="17">
         <v>2.39</v>
       </c>
-      <c r="AC23" s="30"/>
+      <c r="AC23" s="17">
+        <v>0.77</v>
+      </c>
       <c r="AD23" s="30"/>
       <c r="AE23" s="30"/>
       <c r="AI23" s="17" t="s">
@@ -22765,53 +22777,53 @@
     <row r="32" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="24"/>
       <c r="I32" s="23"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="95" t="s">
+      <c r="K32" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
       <c r="N32" s="24"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="24"/>
-      <c r="S32" s="98" t="s">
+      <c r="S32" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="T32" s="97"/>
-      <c r="U32" s="97"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
       <c r="V32" s="24"/>
       <c r="W32" s="25"/>
       <c r="X32" s="19"/>
       <c r="Z32" s="23"/>
       <c r="AA32" s="24"/>
-      <c r="AB32" s="90" t="s">
+      <c r="AB32" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="89"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
       <c r="AE32" s="24"/>
       <c r="AH32" s="23"/>
       <c r="AI32" s="24"/>
-      <c r="AJ32" s="95" t="s">
+      <c r="AJ32" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AK32" s="94"/>
-      <c r="AL32" s="94"/>
+      <c r="AK32" s="95"/>
+      <c r="AL32" s="95"/>
       <c r="AM32" s="24"/>
       <c r="AP32" s="23"/>
       <c r="AQ32" s="24"/>
-      <c r="AR32" s="98" t="s">
+      <c r="AR32" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="AS32" s="97"/>
-      <c r="AT32" s="97"/>
+      <c r="AS32" s="91"/>
+      <c r="AT32" s="91"/>
       <c r="AU32" s="24"/>
     </row>
     <row r="33" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -23080,6 +23092,9 @@
       </c>
       <c r="AB36" s="17">
         <v>1.67</v>
+      </c>
+      <c r="AC36" s="17">
+        <v>0.53</v>
       </c>
       <c r="AH36" s="22" t="s">
         <v>16</v>
@@ -23148,7 +23163,9 @@
       <c r="AB37" s="17">
         <v>5.15</v>
       </c>
-      <c r="AC37" s="30"/>
+      <c r="AC37" s="17">
+        <v>0.36</v>
+      </c>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30"/>
       <c r="AI37" s="17" t="s">
@@ -23525,6 +23542,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="AR18:AT18"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AR4:AT4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="Z2:AU2"/>
@@ -23541,10 +23562,6 @@
     <mergeCell ref="AJ18:AL18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="S18:U18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="AR18:AT18"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AR4:AT4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23604,55 +23621,55 @@
       <c r="AP1" s="17"/>
     </row>
     <row r="2" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
       <c r="X2" s="19"/>
-      <c r="Z2" s="87" t="s">
+      <c r="Z2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -23662,53 +23679,53 @@
     <row r="4" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="24"/>
       <c r="I4" s="23"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="24"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="24"/>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
       <c r="V4" s="24"/>
       <c r="W4" s="25"/>
       <c r="X4" s="19"/>
       <c r="Z4" s="23"/>
       <c r="AA4" s="24"/>
-      <c r="AB4" s="88" t="s">
+      <c r="AB4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
       <c r="AE4" s="24"/>
       <c r="AH4" s="23"/>
       <c r="AI4" s="24"/>
-      <c r="AJ4" s="93" t="s">
+      <c r="AJ4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
       <c r="AM4" s="24"/>
       <c r="AP4" s="23"/>
       <c r="AQ4" s="24"/>
-      <c r="AR4" s="96" t="s">
+      <c r="AR4" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
       <c r="AU4" s="24"/>
     </row>
     <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -24245,53 +24262,53 @@
     <row r="18" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="24"/>
       <c r="I18" s="23"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="95" t="s">
+      <c r="K18" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
       <c r="N18" s="24"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="24"/>
-      <c r="S18" s="98" t="s">
+      <c r="S18" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
       <c r="V18" s="24"/>
       <c r="W18" s="25"/>
       <c r="X18" s="19"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="24"/>
-      <c r="AB18" s="90" t="s">
+      <c r="AB18" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
       <c r="AE18" s="24"/>
       <c r="AH18" s="23"/>
       <c r="AI18" s="24"/>
-      <c r="AJ18" s="95" t="s">
+      <c r="AJ18" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="94"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" s="95"/>
       <c r="AM18" s="24"/>
       <c r="AP18" s="23"/>
       <c r="AQ18" s="24"/>
-      <c r="AR18" s="98" t="s">
+      <c r="AR18" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="AS18" s="97"/>
-      <c r="AT18" s="97"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="91"/>
       <c r="AU18" s="24"/>
     </row>
     <row r="19" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -24815,53 +24832,53 @@
     <row r="32" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="24"/>
       <c r="I32" s="23"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="95" t="s">
+      <c r="K32" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
       <c r="N32" s="24"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="24"/>
-      <c r="S32" s="98" t="s">
+      <c r="S32" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="T32" s="97"/>
-      <c r="U32" s="97"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
       <c r="V32" s="24"/>
       <c r="W32" s="25"/>
       <c r="X32" s="19"/>
       <c r="Z32" s="23"/>
       <c r="AA32" s="24"/>
-      <c r="AB32" s="90" t="s">
+      <c r="AB32" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="89"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
       <c r="AE32" s="24"/>
       <c r="AH32" s="23"/>
       <c r="AI32" s="24"/>
-      <c r="AJ32" s="95" t="s">
+      <c r="AJ32" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AK32" s="94"/>
-      <c r="AL32" s="94"/>
+      <c r="AK32" s="95"/>
+      <c r="AL32" s="95"/>
       <c r="AM32" s="24"/>
       <c r="AP32" s="23"/>
       <c r="AQ32" s="24"/>
-      <c r="AR32" s="98" t="s">
+      <c r="AR32" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="AS32" s="97"/>
-      <c r="AT32" s="97"/>
+      <c r="AS32" s="91"/>
+      <c r="AT32" s="91"/>
       <c r="AU32" s="24"/>
     </row>
     <row r="33" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -25499,6 +25516,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="Z2:AU2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="AR4:AT4"/>
     <mergeCell ref="AJ18:AL18"/>
     <mergeCell ref="AR18:AT18"/>
     <mergeCell ref="C32:E32"/>
@@ -25511,14 +25536,6 @@
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="S18:U18"/>
     <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="Z2:AU2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="AR4:AT4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
